--- a/globalVariables/globalVarsList_appCore.xlsx
+++ b/globalVariables/globalVarsList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\globalVariables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85FE76B-5CC9-4209-A1DF-8C732A0D9D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE176179-91AD-48FB-BA8C-AF47EC9E7475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,22 +456,22 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
